--- a/data.xlsx
+++ b/data.xlsx
@@ -363,9 +363,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="B1:G94"/>
+  <dimension ref="B1:H96"/>
   <sheetData>
-    <row r="1" spans="2:7" customFormat="false">
+    <row r="1" spans="2:8" customFormat="false">
       <c r="B1" s="0" t="str">
         <v>ID</v>
       </c>
@@ -384,77 +384,89 @@
       <c r="G1" s="0" t="str">
         <v>SUM</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="false">
+      <c r="H1" s="0" t="str">
+        <v>RESPOND PERCENTAGE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="false">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="str">
-        <v>yen_sta</v>
+        <v>___angevivi</v>
       </c>
       <c r="C2" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D2" s="0">
-        <v>12456</v>
+        <v>312104</v>
       </c>
       <c r="E2" s="0" t="str">
         <v>C-</v>
       </c>
       <c r="F2" s="0">
-        <v>8.02826e-05</v>
+        <v>0.0102466</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="false">
+        <v>3198</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>2.5611%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="false">
       <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="str">
-        <v>hslee1015</v>
+        <v>__leeheeeun__</v>
       </c>
       <c r="C3" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D3" s="0">
-        <v>2575</v>
+        <v>337091</v>
       </c>
       <c r="E3" s="0" t="str">
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0</v>
+        <v>0.420501</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="false">
+        <v>141747</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>3.7423%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="false">
       <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="str">
-        <v>jju_dresser</v>
+        <v>_bysoy</v>
       </c>
       <c r="C4" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D4" s="0">
-        <v>81114</v>
+        <v>82289</v>
       </c>
       <c r="E4" s="0" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="F4" s="0">
-        <v>4.56964</v>
+        <v>0.36023</v>
       </c>
       <c r="G4" s="0">
-        <v>370662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="false">
+        <v>29643</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>14.6073%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="false">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -465,1502 +477,1697 @@
         <v>16%</v>
       </c>
       <c r="D5" s="0">
-        <v>3015</v>
+        <v>2924</v>
       </c>
       <c r="E5" s="0" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="F5" s="0">
-        <v>4.03781</v>
+        <v>5.31327</v>
       </c>
       <c r="G5" s="0">
-        <v>12174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="false">
+        <v>15536</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>33.114%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="false">
       <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="str">
-        <v>___angevivi</v>
+        <v>_hyoseung</v>
       </c>
       <c r="C6" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D6" s="0">
-        <v>309454</v>
+        <v>162899</v>
       </c>
       <c r="E6" s="0" t="str">
-        <v>C-</v>
+        <v>C</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0100176</v>
+        <v>0.0247515</v>
       </c>
       <c r="G6" s="0">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="false">
+        <v>4032</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v>19.1547%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="false">
       <c r="A7" s="0">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="str">
-        <v>hwangbarbie</v>
+        <v>jju_dresser</v>
       </c>
       <c r="C7" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D7" s="0">
-        <v>148298</v>
+        <v>80844</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v>C-</v>
+        <v>A</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0</v>
+        <v>4.29002</v>
       </c>
       <c r="G7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" customFormat="false">
+        <v>346822</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v>34.2161%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="false">
       <c r="A8" s="0">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="str">
-        <v>hyo_82</v>
+        <v>hslee1015</v>
       </c>
       <c r="C8" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D8" s="0">
-        <v>63153</v>
+        <v>2578</v>
       </c>
       <c r="E8" s="0" t="str">
-        <v>B</v>
+        <v>C-</v>
       </c>
       <c r="F8" s="0">
-        <v>0.463984</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="0">
-        <v>29302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>39.2328%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="false">
       <c r="A9" s="0">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="str">
-        <v>ohttomom</v>
+        <v>71.an</v>
       </c>
       <c r="C9" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D9" s="0">
-        <v>380231</v>
+        <v>116644</v>
       </c>
       <c r="E9" s="0" t="str">
         <v>B-</v>
       </c>
       <c r="F9" s="0">
-        <v>0.114772</v>
+        <v>0.159185</v>
       </c>
       <c r="G9" s="0">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customFormat="false">
+        <v>18568</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>9.8743%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="false">
       <c r="A10" s="0">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="str">
-        <v>i_am_a_dancer_2341</v>
+        <v>yen_sta</v>
       </c>
       <c r="C10" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D10" s="0">
-        <v>114609</v>
+        <v>12490</v>
       </c>
       <c r="E10" s="0" t="str">
-        <v>A-</v>
+        <v>C-</v>
       </c>
       <c r="F10" s="0">
-        <v>1.21388</v>
+        <v>8.0064e-05</v>
       </c>
       <c r="G10" s="0">
-        <v>139122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customFormat="false">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v>1.3333%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="false">
       <c r="A11" s="0">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="str">
-        <v>__leeheeeun__</v>
+        <v>am01.30</v>
       </c>
       <c r="C11" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D11" s="0">
-        <v>336750</v>
+        <v>317230</v>
       </c>
       <c r="E11" s="0" t="str">
-        <v>B+</v>
+        <v>C-</v>
       </c>
       <c r="F11" s="0">
-        <v>0.617075</v>
+        <v>0.0183085</v>
       </c>
       <c r="G11" s="0">
-        <v>207800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" customFormat="false">
+        <v>5808</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>7.468%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="false">
       <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="str">
-        <v>_bysoy</v>
+        <v>applekim2</v>
       </c>
       <c r="C12" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D12" s="0">
-        <v>82077</v>
+        <v>157672</v>
       </c>
       <c r="E12" s="0" t="str">
-        <v>B</v>
+        <v>B-</v>
       </c>
       <c r="F12" s="0">
-        <v>0.364877</v>
+        <v>0.189139</v>
       </c>
       <c r="G12" s="0">
-        <v>29948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" customFormat="false">
+        <v>29822</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v>12.431%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="false">
       <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="str">
-        <v>_hyoseung</v>
+        <v>y_rinnnnnn</v>
       </c>
       <c r="C13" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D13" s="0">
-        <v>162799</v>
+        <v>8471</v>
       </c>
       <c r="E13" s="0" t="str">
-        <v>C</v>
+        <v>C-</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0247667</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="0">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>24.6815%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="false">
       <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="str">
-        <v>71.an</v>
+        <v>bbu___</v>
       </c>
       <c r="C14" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D14" s="0">
-        <v>116586</v>
+        <v>87576</v>
       </c>
       <c r="E14" s="0" t="str">
-        <v>B-</v>
+        <v>A-</v>
       </c>
       <c r="F14" s="0">
-        <v>0.159599</v>
+        <v>1.83205</v>
       </c>
       <c r="G14" s="0">
-        <v>18607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" customFormat="false">
+        <v>160444</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v>19.74%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customFormat="false">
       <c r="A15" s="0">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="str">
-        <v>am01.30</v>
+        <v>bk_kimm</v>
       </c>
       <c r="C15" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D15" s="0">
-        <v>316246</v>
+        <v>128545</v>
       </c>
       <c r="E15" s="0" t="str">
-        <v>C-</v>
+        <v>C</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0174295</v>
+        <v>0.0462717</v>
       </c>
       <c r="G15" s="0">
-        <v>5512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" customFormat="false">
+        <v>5948</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v>33.9351%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="false">
       <c r="A16" s="0">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="str">
-        <v>applekim2</v>
+        <v>blank9_yerim</v>
       </c>
       <c r="C16" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D16" s="0">
-        <v>157774</v>
+        <v>87089</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="F16" s="0">
-        <v>0.188713</v>
+        <v>0.659417</v>
       </c>
       <c r="G16" s="0">
-        <v>29774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" customFormat="false">
+        <v>57428</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v>8.1343%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="false">
       <c r="A17" s="0">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="str">
-        <v>bbu___</v>
+        <v>boori_boo</v>
       </c>
       <c r="C17" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D17" s="0">
-        <v>87224</v>
+        <v>209119</v>
       </c>
       <c r="E17" s="0" t="str">
-        <v>A-</v>
+        <v>C</v>
       </c>
       <c r="F17" s="0">
-        <v>1.77183</v>
+        <v>0.0422917</v>
       </c>
       <c r="G17" s="0">
-        <v>154546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" customFormat="false">
+        <v>8844</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>10.4262%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="false">
       <c r="A18" s="0">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="str">
-        <v>bk_kimm</v>
+        <v>byminawithyou</v>
       </c>
       <c r="C18" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D18" s="0">
-        <v>128432</v>
+        <v>123593</v>
       </c>
       <c r="E18" s="0" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="F18" s="0">
-        <v>0.0506572</v>
+        <v>3.7799</v>
       </c>
       <c r="G18" s="0">
-        <v>6506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" customFormat="false">
+        <v>467169</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v>24.9499%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="false">
       <c r="A19" s="0">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="str">
-        <v>blank9_yerim</v>
+        <v>yxxnii</v>
       </c>
       <c r="C19" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D19" s="0">
-        <v>86464</v>
+        <v>63185</v>
       </c>
       <c r="E19" s="0" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="F19" s="0">
-        <v>0.840396</v>
+        <v>0.0333623</v>
       </c>
       <c r="G19" s="0">
-        <v>72664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" customFormat="false">
+        <v>2108</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v>12.1605%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="false">
       <c r="A20" s="0">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="str">
-        <v>boori_boo</v>
+        <v>butfitseoul</v>
       </c>
       <c r="C20" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D20" s="0">
-        <v>207121</v>
+        <v>2870</v>
       </c>
       <c r="E20" s="0" t="str">
-        <v>C</v>
+        <v>C-</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0409905</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="0">
-        <v>8490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v>18.2997%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" customFormat="false">
       <c r="A21" s="0">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="str">
-        <v>byminawithyou</v>
+        <v>yuung0204</v>
       </c>
       <c r="C21" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D21" s="0">
-        <v>123306</v>
+        <v>47763</v>
       </c>
       <c r="E21" s="0" t="str">
-        <v>A</v>
+        <v>A-</v>
       </c>
       <c r="F21" s="0">
-        <v>3.99288</v>
+        <v>1.08178</v>
       </c>
       <c r="G21" s="0">
-        <v>492346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" customFormat="false">
+        <v>51669</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v>34.8387%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="false">
       <c r="A22" s="0">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="str">
-        <v>butfitseoul</v>
+        <v>cholyncom</v>
       </c>
       <c r="C22" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D22" s="0">
-        <v>2737</v>
+        <v>45308</v>
       </c>
       <c r="E22" s="0" t="str">
-        <v>C-</v>
+        <v>B+</v>
       </c>
       <c r="F22" s="0">
-        <v>0.0</v>
+        <v>0.824358</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" customFormat="false">
+        <v>37350</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v>28.4946%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="false">
       <c r="A23" s="0">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="str">
-        <v>iamaflower</v>
+        <v>daldal_cong</v>
       </c>
       <c r="C23" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D23" s="0">
-        <v>61327</v>
+        <v>47719</v>
       </c>
       <c r="E23" s="0" t="str">
         <v>C-</v>
       </c>
       <c r="F23" s="0">
-        <v>0.00862589</v>
+        <v>0.0</v>
       </c>
       <c r="G23" s="0">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v>32.1929%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="false">
       <c r="A24" s="0">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="str">
-        <v>cholyncom</v>
+        <v>you_mer</v>
       </c>
       <c r="C24" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D24" s="0">
-        <v>45299</v>
+        <v>53317</v>
       </c>
       <c r="E24" s="0" t="str">
-        <v>B+</v>
+        <v>C+</v>
       </c>
       <c r="F24" s="0">
-        <v>0.752158</v>
+        <v>0.0862202</v>
       </c>
       <c r="G24" s="0">
-        <v>34072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" customFormat="false">
+        <v>4597</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>20.6671%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="false">
       <c r="A25" s="0">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="str">
-        <v>jangmini</v>
+        <v>yoonmida</v>
       </c>
       <c r="C25" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D25" s="0">
-        <v>184165</v>
+        <v>318132</v>
       </c>
       <c r="E25" s="0" t="str">
-        <v>B</v>
+        <v>C-</v>
       </c>
       <c r="F25" s="0">
-        <v>0.470627</v>
+        <v>0.0186243</v>
       </c>
       <c r="G25" s="0">
-        <v>86673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" customFormat="false">
+        <v>5925</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v>8.465%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="false">
       <c r="A26" s="0">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="str">
-        <v>daldal_cong</v>
+        <v>de_silhouette</v>
       </c>
       <c r="C26" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D26" s="0">
-        <v>47435</v>
+        <v>41142</v>
       </c>
       <c r="E26" s="0" t="str">
-        <v>C-</v>
+        <v>A+</v>
       </c>
       <c r="F26" s="0">
-        <v>0.0</v>
+        <v>5.17009</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" customFormat="false">
+        <v>212708</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <v>28.4758%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="false">
       <c r="A27" s="0">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="str">
-        <v>jeenayoon</v>
+        <v>yoongchic</v>
       </c>
       <c r="C27" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D27" s="0">
-        <v>75514</v>
+        <v>69540</v>
       </c>
       <c r="E27" s="0" t="str">
-        <v>A</v>
+        <v>B-</v>
       </c>
       <c r="F27" s="0">
-        <v>3.20805</v>
+        <v>0.167961</v>
       </c>
       <c r="G27" s="0">
-        <v>242253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" customFormat="false">
+        <v>11680</v>
+      </c>
+      <c r="H27" s="0" t="str">
+        <v>10.6693%</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="false">
       <c r="A28" s="0">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="str">
-        <v>de_silhouette</v>
+        <v>delight_hyeon</v>
       </c>
       <c r="C28" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D28" s="0">
-        <v>41104</v>
+        <v>198045</v>
       </c>
       <c r="E28" s="0" t="str">
-        <v>A+</v>
+        <v>C-</v>
       </c>
       <c r="F28" s="0">
-        <v>5.07741</v>
+        <v>0.0</v>
       </c>
       <c r="G28" s="0">
-        <v>208702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="str">
+        <v>8.4864%</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="false">
       <c r="A29" s="0">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="str">
-        <v>jihye.pumpkin</v>
+        <v>derang_onni</v>
       </c>
       <c r="C29" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D29" s="0">
-        <v>211554</v>
+        <v>161686</v>
       </c>
       <c r="E29" s="0" t="str">
-        <v>C-</v>
+        <v>B+</v>
       </c>
       <c r="F29" s="0">
-        <v>0.0</v>
+        <v>0.82064</v>
       </c>
       <c r="G29" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" customFormat="false">
+        <v>132686</v>
+      </c>
+      <c r="H29" s="0" t="str">
+        <v>15.944%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="false">
       <c r="A30" s="0">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="str">
-        <v>delight_hyeon</v>
+        <v>endorphin.oh</v>
       </c>
       <c r="C30" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D30" s="0">
-        <v>198500</v>
+        <v>92584</v>
       </c>
       <c r="E30" s="0" t="str">
         <v>C-</v>
       </c>
       <c r="F30" s="0">
-        <v>0.0</v>
+        <v>0.0199819</v>
       </c>
       <c r="G30" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" customFormat="false">
+        <v>1850</v>
+      </c>
+      <c r="H30" s="0" t="str">
+        <v>13.1439%</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="false">
       <c r="A31" s="0">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="str">
-        <v>jjeung_s2</v>
+        <v>elegance_choi</v>
       </c>
       <c r="C31" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D31" s="0">
-        <v>164275</v>
+        <v>21339</v>
       </c>
       <c r="E31" s="0" t="str">
-        <v>C-</v>
+        <v>A</v>
       </c>
       <c r="F31" s="0">
-        <v>0.0</v>
+        <v>2.33891</v>
       </c>
       <c r="G31" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="false">
+        <v>49910</v>
+      </c>
+      <c r="H31" s="0" t="str">
+        <v>43.2874%</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="false">
       <c r="A32" s="0">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="str">
-        <v>derang_onni</v>
+        <v>erineeeeee</v>
       </c>
       <c r="C32" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D32" s="0">
-        <v>161538</v>
+        <v>80530</v>
       </c>
       <c r="E32" s="0" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="F32" s="0">
-        <v>0.575809</v>
+        <v>0.0287967</v>
       </c>
       <c r="G32" s="0">
-        <v>93015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" customFormat="false">
+        <v>2319</v>
+      </c>
+      <c r="H32" s="0" t="str">
+        <v>23.5803%</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="false">
       <c r="A33" s="0">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="str">
-        <v>endorphin.oh</v>
+        <v>yoomth</v>
       </c>
       <c r="C33" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D33" s="0">
-        <v>92074</v>
+        <v>276167</v>
       </c>
       <c r="E33" s="0" t="str">
-        <v>C-</v>
+        <v>B-</v>
       </c>
       <c r="F33" s="0">
-        <v>0.0184851</v>
+        <v>0.163959</v>
       </c>
       <c r="G33" s="0">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" customFormat="false">
+        <v>45280</v>
+      </c>
+      <c r="H33" s="0" t="str">
+        <v>6.0659%</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="false">
       <c r="A34" s="0">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="str">
-        <v>jjoy_oo54</v>
+        <v>yjkang34</v>
       </c>
       <c r="C34" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D34" s="0">
-        <v>191966</v>
+        <v>46925</v>
       </c>
       <c r="E34" s="0" t="str">
-        <v>B+</v>
+        <v>C-</v>
       </c>
       <c r="F34" s="0">
-        <v>0.83358</v>
+        <v>0.0</v>
       </c>
       <c r="G34" s="0">
-        <v>160019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="str">
+        <v>32.3324%</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="false">
       <c r="A35" s="0">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="str">
-        <v>elegance_choi</v>
+        <v>go__bambi</v>
       </c>
       <c r="C35" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D35" s="0">
-        <v>21340</v>
+        <v>142947</v>
       </c>
       <c r="E35" s="0" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="F35" s="0">
-        <v>2.3359</v>
+        <v>0.411621</v>
       </c>
       <c r="G35" s="0">
-        <v>49848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" customFormat="false">
+        <v>58840</v>
+      </c>
+      <c r="H35" s="0" t="str">
+        <v>13.6618%</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="false">
       <c r="A36" s="0">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="str">
-        <v>jwjw0317</v>
+        <v>gusojeong</v>
       </c>
       <c r="C36" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D36" s="0">
-        <v>74424</v>
+        <v>301738</v>
       </c>
       <c r="E36" s="0" t="str">
         <v>A-</v>
       </c>
       <c r="F36" s="0">
-        <v>1.69764</v>
+        <v>1.25989</v>
       </c>
       <c r="G36" s="0">
-        <v>126345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" customFormat="false">
+        <v>380157</v>
+      </c>
+      <c r="H36" s="0" t="str">
+        <v>15.8858%</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="false">
       <c r="A37" s="0">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="str">
-        <v>erineeeeee</v>
+        <v>yeonpilates</v>
       </c>
       <c r="C37" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D37" s="0">
-        <v>80439</v>
+        <v>202563</v>
       </c>
       <c r="E37" s="0" t="str">
-        <v>B-</v>
+        <v>A-</v>
       </c>
       <c r="F37" s="0">
-        <v>0.143562</v>
+        <v>1.38673</v>
       </c>
       <c r="G37" s="0">
-        <v>11548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" customFormat="false">
+        <v>280900</v>
+      </c>
+      <c r="H37" s="0" t="str">
+        <v>25.4949%</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="false">
       <c r="A38" s="0">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="str">
-        <v>kwrhome</v>
+        <v>yejinkkk</v>
       </c>
       <c r="C38" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D38" s="0">
-        <v>152568</v>
+        <v>109251</v>
       </c>
       <c r="E38" s="0" t="str">
         <v>A+</v>
       </c>
       <c r="F38" s="0">
-        <v>6.11493</v>
+        <v>8.60855</v>
       </c>
       <c r="G38" s="0">
-        <v>932942</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" customFormat="false">
+        <v>940493</v>
+      </c>
+      <c r="H38" s="0" t="str">
+        <v>7.0782%</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="false">
       <c r="A39" s="0">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="str">
-        <v>go__bambi</v>
+        <v>hari_ya</v>
       </c>
       <c r="C39" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D39" s="0">
-        <v>142547</v>
+        <v>244127</v>
       </c>
       <c r="E39" s="0" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="F39" s="0">
-        <v>0.370608</v>
+        <v>2.45602</v>
       </c>
       <c r="G39" s="0">
-        <v>52829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" customFormat="false">
+        <v>599582</v>
+      </c>
+      <c r="H39" s="0" t="str">
+        <v>17.3505%</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="false">
       <c r="A40" s="0">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="str">
-        <v>lavie_rim</v>
+        <v>y_aile</v>
       </c>
       <c r="C40" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D40" s="0">
-        <v>80225</v>
+        <v>103491</v>
       </c>
       <c r="E40" s="0" t="str">
-        <v>C-</v>
+        <v>A-</v>
       </c>
       <c r="F40" s="0">
-        <v>0.0159676</v>
+        <v>1.45676</v>
       </c>
       <c r="G40" s="0">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" customFormat="false">
+        <v>150762</v>
+      </c>
+      <c r="H40" s="0" t="str">
+        <v>16.1979%</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="false">
       <c r="A41" s="0">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="str">
-        <v>gusojeong</v>
+        <v>haumjie</v>
       </c>
       <c r="C41" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D41" s="0">
-        <v>301311</v>
+        <v>101327</v>
       </c>
       <c r="E41" s="0" t="str">
-        <v>A-</v>
+        <v>B-</v>
       </c>
       <c r="F41" s="0">
-        <v>1.02124</v>
+        <v>0.146535</v>
       </c>
       <c r="G41" s="0">
-        <v>307710</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" customFormat="false">
+        <v>14848</v>
+      </c>
+      <c r="H41" s="0" t="str">
+        <v>20.6897%</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="false">
       <c r="A42" s="0">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="str">
-        <v>leeemijeong</v>
+        <v>xxoziin</v>
       </c>
       <c r="C42" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D42" s="0">
-        <v>114125</v>
+        <v>120928</v>
       </c>
       <c r="E42" s="0" t="str">
-        <v>A-</v>
+        <v>B</v>
       </c>
       <c r="F42" s="0">
-        <v>1.57792</v>
+        <v>0.445926</v>
       </c>
       <c r="G42" s="0">
-        <v>180080</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" customFormat="false">
+        <v>53925</v>
+      </c>
+      <c r="H42" s="0" t="str">
+        <v>11.2793%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="false">
       <c r="A43" s="0">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="str">
-        <v>hari_ya</v>
+        <v>haute_n_doudou</v>
       </c>
       <c r="C43" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D43" s="0">
-        <v>244350</v>
+        <v>43687</v>
       </c>
       <c r="E43" s="0" t="str">
-        <v>A</v>
+        <v>A-</v>
       </c>
       <c r="F43" s="0">
-        <v>2.39124</v>
+        <v>1.14549</v>
       </c>
       <c r="G43" s="0">
-        <v>584300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" customFormat="false">
+        <v>50043</v>
+      </c>
+      <c r="H43" s="0" t="str">
+        <v>9.1881%</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" customFormat="false">
       <c r="A44" s="0">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="str">
-        <v>haumjie</v>
+        <v>heididrinkslove</v>
       </c>
       <c r="C44" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D44" s="0">
-        <v>101450</v>
+        <v>79808</v>
       </c>
       <c r="E44" s="0" t="str">
-        <v>B-</v>
+        <v>C</v>
       </c>
       <c r="F44" s="0">
-        <v>0.143854</v>
+        <v>0.05418</v>
       </c>
       <c r="G44" s="0">
-        <v>14594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" customFormat="false">
+        <v>4324</v>
+      </c>
+      <c r="H44" s="0" t="str">
+        <v>32.1552%</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" customFormat="false">
       <c r="A45" s="0">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="str">
-        <v>haute_n_doudou</v>
+        <v>withnami</v>
       </c>
       <c r="C45" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D45" s="0">
-        <v>43705</v>
+        <v>125231</v>
       </c>
       <c r="E45" s="0" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="F45" s="0">
-        <v>0.929619</v>
+        <v>0.0507542</v>
       </c>
       <c r="G45" s="0">
-        <v>40629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" customFormat="false">
+        <v>6356</v>
+      </c>
+      <c r="H45" s="0" t="str">
+        <v>31.9892%</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="false">
       <c r="A46" s="0">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="str">
-        <v>le_cormang</v>
+        <v>wanna_bp</v>
       </c>
       <c r="C46" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D46" s="0">
-        <v>95500</v>
+        <v>222024</v>
       </c>
       <c r="E46" s="0" t="str">
-        <v>A+</v>
+        <v>A-</v>
       </c>
       <c r="F46" s="0">
-        <v>13.4129</v>
+        <v>1.98023</v>
       </c>
       <c r="G46" s="0">
-        <v>1280934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" customFormat="false">
+        <v>439659</v>
+      </c>
+      <c r="H46" s="0" t="str">
+        <v>9.1737%</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="false">
       <c r="A47" s="0">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="str">
-        <v>heididrinkslove</v>
+        <v>vvery_woony</v>
       </c>
       <c r="C47" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D47" s="0">
-        <v>79653</v>
+        <v>72249</v>
       </c>
       <c r="E47" s="0" t="str">
-        <v>C</v>
+        <v>C+</v>
       </c>
       <c r="F47" s="0">
-        <v>0.0555535</v>
+        <v>0.0747969</v>
       </c>
       <c r="G47" s="0">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" customFormat="false">
+        <v>5404</v>
+      </c>
+      <c r="H47" s="0" t="str">
+        <v>23.7028%</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" customFormat="false">
       <c r="A48" s="0">
         <v>47</v>
       </c>
       <c r="B48" s="0" t="str">
-        <v>lillang_de_beaute</v>
+        <v>hyejung_belle</v>
       </c>
       <c r="C48" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D48" s="0">
-        <v>127185</v>
+        <v>171089</v>
       </c>
       <c r="E48" s="0" t="str">
         <v>B+</v>
       </c>
       <c r="F48" s="0">
-        <v>0.719252</v>
+        <v>0.875118</v>
       </c>
       <c r="G48" s="0">
-        <v>91478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" customFormat="false">
+        <v>149723</v>
+      </c>
+      <c r="H48" s="0" t="str">
+        <v>29.6634%</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="false">
       <c r="A49" s="0">
         <v>48</v>
       </c>
       <c r="B49" s="0" t="str">
-        <v>lovable.mh</v>
+        <v>vivi_saena</v>
       </c>
       <c r="C49" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D49" s="0">
-        <v>105823</v>
+        <v>30622</v>
       </c>
       <c r="E49" s="0" t="str">
-        <v>C-</v>
+        <v>B+</v>
       </c>
       <c r="F49" s="0">
-        <v>0.0</v>
+        <v>0.524329</v>
       </c>
       <c r="G49" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" customFormat="false">
+        <v>16056</v>
+      </c>
+      <c r="H49" s="0" t="str">
+        <v>33.6735%</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" customFormat="false">
       <c r="A50" s="0">
         <v>49</v>
       </c>
       <c r="B50" s="0" t="str">
-        <v>lovelip_jin</v>
+        <v>hwangbarbie</v>
       </c>
       <c r="C50" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D50" s="0">
-        <v>69216</v>
+        <v>148320</v>
       </c>
       <c r="E50" s="0" t="str">
-        <v>A</v>
+        <v>C-</v>
       </c>
       <c r="F50" s="0">
-        <v>2.66357</v>
+        <v>0.0</v>
       </c>
       <c r="G50" s="0">
-        <v>184362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="str">
+        <v>11.9102%</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" customFormat="false">
       <c r="A51" s="0">
         <v>50</v>
       </c>
       <c r="B51" s="0" t="str">
-        <v>hyejung_belle</v>
+        <v>vivamoon</v>
       </c>
       <c r="C51" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D51" s="0">
-        <v>170480</v>
+        <v>452543</v>
       </c>
       <c r="E51" s="0" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="F51" s="0">
-        <v>0.889911</v>
+        <v>0.0535021</v>
       </c>
       <c r="G51" s="0">
-        <v>151712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" customFormat="false">
+        <v>24212</v>
+      </c>
+      <c r="H51" s="0" t="str">
+        <v>24.5907%</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" customFormat="false">
       <c r="A52" s="0">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="str">
-        <v>madamebree_</v>
+        <v>hyo_82</v>
       </c>
       <c r="C52" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D52" s="0">
-        <v>7653</v>
+        <v>63203</v>
       </c>
       <c r="E52" s="0" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="F52" s="0">
-        <v>9.45041</v>
+        <v>0.351961</v>
       </c>
       <c r="G52" s="0">
-        <v>72324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" customFormat="false">
+        <v>22245</v>
+      </c>
+      <c r="H52" s="0" t="str">
+        <v>41.3145%</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="false">
       <c r="A53" s="0">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="str">
-        <v>mangdoo_noona</v>
+        <v>i_am_a_dancer_2341</v>
       </c>
       <c r="C53" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D53" s="0">
-        <v>181748</v>
+        <v>113650</v>
       </c>
       <c r="E53" s="0" t="str">
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="F53" s="0">
-        <v>0.197675</v>
+        <v>0.7685</v>
       </c>
       <c r="G53" s="0">
-        <v>35927</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" customFormat="false">
+        <v>87340</v>
+      </c>
+      <c r="H53" s="0" t="str">
+        <v>31.8643%</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" customFormat="false">
       <c r="A54" s="0">
         <v>53</v>
       </c>
       <c r="B54" s="0" t="str">
-        <v>manyo_yoojin</v>
+        <v>iamaflower</v>
       </c>
       <c r="C54" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D54" s="0">
-        <v>169833</v>
+        <v>61254</v>
       </c>
       <c r="E54" s="0" t="str">
-        <v>A-</v>
+        <v>C+</v>
       </c>
       <c r="F54" s="0">
-        <v>1.95145</v>
+        <v>0.0758481</v>
       </c>
       <c r="G54" s="0">
-        <v>331420</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" customFormat="false">
+        <v>4646</v>
+      </c>
+      <c r="H54" s="0" t="str">
+        <v>29.1405%</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" customFormat="false">
       <c r="A55" s="0">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="str">
-        <v>maylaena</v>
+        <v>jangmini</v>
       </c>
       <c r="C55" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D55" s="0">
-        <v>39642</v>
+        <v>184221</v>
       </c>
       <c r="E55" s="0" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="F55" s="0">
-        <v>0.0596842</v>
+        <v>0.405589</v>
       </c>
       <c r="G55" s="0">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" customFormat="false">
+        <v>74718</v>
+      </c>
+      <c r="H55" s="0" t="str">
+        <v>29.7651%</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="false">
       <c r="A56" s="0">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="str">
-        <v>mimiciel</v>
+        <v>jeenayoon</v>
       </c>
       <c r="C56" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D56" s="0">
-        <v>76479</v>
+        <v>75387</v>
       </c>
       <c r="E56" s="0" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="F56" s="0">
-        <v>22.4067</v>
+        <v>3.3267</v>
       </c>
       <c r="G56" s="0">
-        <v>1713640</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" customFormat="false">
+        <v>250790</v>
+      </c>
+      <c r="H56" s="0" t="str">
+        <v>24.2816%</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="false">
       <c r="A57" s="0">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="str">
-        <v>mimiwor</v>
+        <v>jihye.pumpkin</v>
       </c>
       <c r="C57" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D57" s="0">
-        <v>238856</v>
+        <v>211338</v>
       </c>
       <c r="E57" s="0" t="str">
-        <v>A</v>
+        <v>C-</v>
       </c>
       <c r="F57" s="0">
-        <v>2.47977</v>
+        <v>0.00109304</v>
       </c>
       <c r="G57" s="0">
-        <v>592307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" customFormat="false">
+        <v>231</v>
+      </c>
+      <c r="H57" s="0" t="str">
+        <v>22.0039%</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" customFormat="false">
       <c r="A58" s="0">
         <v>57</v>
       </c>
       <c r="B58" s="0" t="str">
-        <v>minsshop_jm</v>
+        <v>jjeung_s2</v>
       </c>
       <c r="C58" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D58" s="0">
-        <v>138069</v>
+        <v>164390</v>
       </c>
       <c r="E58" s="0" t="str">
-        <v>A-</v>
+        <v>C-</v>
       </c>
       <c r="F58" s="0">
-        <v>1.29487</v>
+        <v>0.0</v>
       </c>
       <c r="G58" s="0">
-        <v>178782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="str">
+        <v>40.9304%</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" customFormat="false">
       <c r="A59" s="0">
         <v>58</v>
       </c>
       <c r="B59" s="0" t="str">
-        <v>mirip_jihyo</v>
+        <v>jjoy_oo54</v>
       </c>
       <c r="C59" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D59" s="0">
-        <v>86464</v>
+        <v>191959</v>
       </c>
       <c r="E59" s="0" t="str">
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="F59" s="0">
-        <v>0.129777</v>
+        <v>0.867305</v>
       </c>
       <c r="G59" s="0">
-        <v>11221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" customFormat="false">
+        <v>166487</v>
+      </c>
+      <c r="H59" s="0" t="str">
+        <v>27.6003%</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" customFormat="false">
       <c r="A60" s="0">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="str">
-        <v>miumiusue</v>
+        <v>jwjw0317</v>
       </c>
       <c r="C60" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D60" s="0">
-        <v>151397</v>
+        <v>74179</v>
       </c>
       <c r="E60" s="0" t="str">
-        <v>C-</v>
+        <v>A-</v>
       </c>
       <c r="F60" s="0">
-        <v>0.00645984</v>
+        <v>1.36951</v>
       </c>
       <c r="G60" s="0">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" customFormat="false">
+        <v>101589</v>
+      </c>
+      <c r="H60" s="0" t="str">
+        <v>35.0682%</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" customFormat="false">
       <c r="A61" s="0">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="str">
-        <v>monojade</v>
+        <v>u__jee</v>
       </c>
       <c r="C61" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D61" s="0">
-        <v>65279</v>
+        <v>169440</v>
       </c>
       <c r="E61" s="0" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="F61" s="0">
-        <v>0.526525</v>
+        <v>0.0200012</v>
       </c>
       <c r="G61" s="0">
-        <v>34371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" customFormat="false">
+        <v>3389</v>
+      </c>
+      <c r="H61" s="0" t="str">
+        <v>31.4843%</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" customFormat="false">
       <c r="A62" s="0">
         <v>61</v>
       </c>
       <c r="B62" s="0" t="str">
-        <v>mynewbae_official</v>
+        <v>kwrhome</v>
       </c>
       <c r="C62" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D62" s="0">
-        <v>566</v>
+        <v>153333</v>
       </c>
       <c r="E62" s="0" t="str">
-        <v>C-</v>
+        <v>A+</v>
       </c>
       <c r="F62" s="0">
-        <v>0.0</v>
+        <v>5.54839</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" customFormat="false">
+        <v>850752</v>
+      </c>
+      <c r="H62" s="0" t="str">
+        <v>0.3194%</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" customFormat="false">
       <c r="A63" s="0">
         <v>62</v>
       </c>
       <c r="B63" s="0" t="str">
-        <v>pinksecret85</v>
+        <v>lavie_rim</v>
       </c>
       <c r="C63" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D63" s="0">
-        <v>123340</v>
+        <v>80210</v>
       </c>
       <c r="E63" s="0" t="str">
-        <v>A-</v>
+        <v>B</v>
       </c>
       <c r="F63" s="0">
-        <v>1.21166</v>
+        <v>0.278731</v>
       </c>
       <c r="G63" s="0">
-        <v>149446</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" customFormat="false">
+        <v>22357</v>
+      </c>
+      <c r="H63" s="0" t="str">
+        <v>8.2963%</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" customFormat="false">
       <c r="A64" s="0">
         <v>63</v>
       </c>
       <c r="B64" s="0" t="str">
-        <v>pu___reum</v>
+        <v>twinkle_sunny7</v>
       </c>
       <c r="C64" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D64" s="0">
-        <v>161003</v>
+        <v>327330</v>
       </c>
       <c r="E64" s="0" t="str">
-        <v>C-</v>
+        <v>C+</v>
       </c>
       <c r="F64" s="0">
-        <v>0.0</v>
+        <v>0.0871048</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" customFormat="false">
+        <v>28512</v>
+      </c>
+      <c r="H64" s="0" t="str">
+        <v>14.0587%</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" customFormat="false">
       <c r="A65" s="0">
         <v>64</v>
       </c>
       <c r="B65" s="0" t="str">
-        <v>re_elly_</v>
+        <v>leeemijeong</v>
       </c>
       <c r="C65" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D65" s="0">
-        <v>49834</v>
+        <v>114002</v>
       </c>
       <c r="E65" s="0" t="str">
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="F65" s="0">
-        <v>0.567946</v>
+        <v>1.17156</v>
       </c>
       <c r="G65" s="0">
-        <v>28303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" customFormat="false">
+        <v>133560</v>
+      </c>
+      <c r="H65" s="0" t="str">
+        <v>32.643%</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" customFormat="false">
       <c r="A66" s="0">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="str">
-        <v>reticella</v>
+        <v>ttovely__</v>
       </c>
       <c r="C66" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D66" s="0">
-        <v>79018</v>
+        <v>117469</v>
       </c>
       <c r="E66" s="0" t="str">
-        <v>B-</v>
+        <v>C-</v>
       </c>
       <c r="F66" s="0">
-        <v>0.14341</v>
+        <v>0.0</v>
       </c>
       <c r="G66" s="0">
-        <v>11332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="str">
+        <v>6.4801%</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" customFormat="false">
       <c r="A67" s="0">
         <v>66</v>
       </c>
       <c r="B67" s="0" t="str">
-        <v>seolhwa939</v>
+        <v>tingkerhee</v>
       </c>
       <c r="C67" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D67" s="0">
-        <v>211202</v>
+        <v>165348</v>
       </c>
       <c r="E67" s="0" t="str">
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="F67" s="0">
-        <v>0.899248</v>
+        <v>0.207429</v>
       </c>
       <c r="G67" s="0">
-        <v>189923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" customFormat="false">
+        <v>34298</v>
+      </c>
+      <c r="H67" s="0" t="str">
+        <v>15.6502%</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" customFormat="false">
       <c r="A68" s="0">
         <v>67</v>
       </c>
       <c r="B68" s="0" t="str">
-        <v>shortbutstunning</v>
+        <v>le_cormang</v>
       </c>
       <c r="C68" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D68" s="0">
-        <v>197145</v>
+        <v>95762</v>
       </c>
       <c r="E68" s="0" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="F68" s="0">
-        <v>0.837977</v>
+        <v>14.9456</v>
       </c>
       <c r="G68" s="0">
-        <v>165203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" customFormat="false">
+        <v>1431223</v>
+      </c>
+      <c r="H68" s="0" t="str">
+        <v>4.3198%</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" customFormat="false">
       <c r="A69" s="0">
         <v>68</v>
       </c>
       <c r="B69" s="0" t="str">
-        <v>shuni_kaeun</v>
+        <v>lillang_de_beaute</v>
       </c>
       <c r="C69" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D69" s="0">
-        <v>109886</v>
+        <v>126708</v>
       </c>
       <c r="E69" s="0" t="str">
-        <v>A-</v>
+        <v>A</v>
       </c>
       <c r="F69" s="0">
-        <v>1.02071</v>
+        <v>3.49519</v>
       </c>
       <c r="G69" s="0">
-        <v>112162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" customFormat="false">
+        <v>442868</v>
+      </c>
+      <c r="H69" s="0" t="str">
+        <v>12.213%</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" customFormat="false">
       <c r="A70" s="0">
         <v>69</v>
       </c>
       <c r="B70" s="0" t="str">
-        <v>siyeon0220</v>
+        <v>lovable.mh</v>
       </c>
       <c r="C70" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D70" s="0">
-        <v>81386</v>
+        <v>107416</v>
       </c>
       <c r="E70" s="0" t="str">
         <v>C-</v>
@@ -1971,557 +2178,684 @@
       <c r="G70" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" customFormat="false">
+      <c r="H70" s="0" t="str">
+        <v>16.126%</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" customFormat="false">
       <c r="A71" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="str">
-        <v>sunmiub</v>
+        <v>theorohaejung</v>
       </c>
       <c r="C71" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D71" s="0">
-        <v>223011</v>
+        <v>79401</v>
       </c>
       <c r="E71" s="0" t="str">
-        <v>C-</v>
+        <v>A-</v>
       </c>
       <c r="F71" s="0">
-        <v>0.0167794</v>
+        <v>1.25318</v>
       </c>
       <c r="G71" s="0">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" customFormat="false">
+        <v>99504</v>
+      </c>
+      <c r="H71" s="0" t="str">
+        <v>34.2432%</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" customFormat="false">
       <c r="A72" s="0">
         <v>71</v>
       </c>
       <c r="B72" s="0" t="str">
-        <v>suzymin</v>
+        <v>lovelip_jin</v>
       </c>
       <c r="C72" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D72" s="0">
-        <v>53522</v>
+        <v>69188</v>
       </c>
       <c r="E72" s="0" t="str">
-        <v>C-</v>
+        <v>A</v>
       </c>
       <c r="F72" s="0">
-        <v>0.00196181</v>
+        <v>2.49403</v>
       </c>
       <c r="G72" s="0">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" customFormat="false">
+        <v>172557</v>
+      </c>
+      <c r="H72" s="0" t="str">
+        <v>44.5514%</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" customFormat="false">
       <c r="A73" s="0">
         <v>72</v>
       </c>
       <c r="B73" s="0" t="str">
-        <v>thanks_kim</v>
+        <v>madamebree_</v>
       </c>
       <c r="C73" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D73" s="0">
-        <v>241762</v>
+        <v>7792</v>
       </c>
       <c r="E73" s="0" t="str">
-        <v>C-</v>
+        <v>A+</v>
       </c>
       <c r="F73" s="0">
-        <v>0.0120614</v>
+        <v>9.35408</v>
       </c>
       <c r="G73" s="0">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" customFormat="false">
+        <v>72887</v>
+      </c>
+      <c r="H73" s="0" t="str">
+        <v>34.7594%</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" customFormat="false">
       <c r="A74" s="0">
         <v>73</v>
       </c>
       <c r="B74" s="0" t="str">
-        <v>theorohaejung</v>
+        <v>mangdoo_noona</v>
       </c>
       <c r="C74" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D74" s="0">
-        <v>79433</v>
+        <v>181826</v>
       </c>
       <c r="E74" s="0" t="str">
-        <v>A</v>
+        <v>B-</v>
       </c>
       <c r="F74" s="0">
-        <v>2.69058</v>
+        <v>0.200857</v>
       </c>
       <c r="G74" s="0">
-        <v>213721</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" customFormat="false">
+        <v>36521</v>
+      </c>
+      <c r="H74" s="0" t="str">
+        <v>31.1458%</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" customFormat="false">
       <c r="A75" s="0">
         <v>74</v>
       </c>
       <c r="B75" s="0" t="str">
-        <v>tingkerhee</v>
+        <v>thanks_kim</v>
       </c>
       <c r="C75" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D75" s="0">
-        <v>165445</v>
+        <v>241697</v>
       </c>
       <c r="E75" s="0" t="str">
         <v>B-</v>
       </c>
       <c r="F75" s="0">
-        <v>0.245326</v>
+        <v>0.231981</v>
       </c>
       <c r="G75" s="0">
-        <v>40588</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" customFormat="false">
+        <v>56069</v>
+      </c>
+      <c r="H75" s="0" t="str">
+        <v>8.587%</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" customFormat="false">
       <c r="A76" s="0">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="str">
-        <v>ttovely__</v>
+        <v>manyo_yoojin</v>
       </c>
       <c r="C76" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D76" s="0">
-        <v>116840</v>
+        <v>170264</v>
       </c>
       <c r="E76" s="0" t="str">
-        <v>C-</v>
+        <v>A-</v>
       </c>
       <c r="F76" s="0">
-        <v>0.0</v>
+        <v>1.87432</v>
       </c>
       <c r="G76" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" customFormat="false">
+        <v>319130</v>
+      </c>
+      <c r="H76" s="0" t="str">
+        <v>23.1481%</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" customFormat="false">
       <c r="A77" s="0">
         <v>76</v>
       </c>
       <c r="B77" s="0" t="str">
-        <v>twinkle_sunny7</v>
+        <v>maylaena</v>
       </c>
       <c r="C77" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D77" s="0">
-        <v>327134</v>
+        <v>39535</v>
       </c>
       <c r="E77" s="0" t="str">
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="F77" s="0">
-        <v>0.101756</v>
+        <v>0.0692045</v>
       </c>
       <c r="G77" s="0">
-        <v>33288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" customFormat="false">
+        <v>2736</v>
+      </c>
+      <c r="H77" s="0" t="str">
+        <v>41.7315%</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" customFormat="false">
       <c r="A78" s="0">
         <v>77</v>
       </c>
       <c r="B78" s="0" t="str">
-        <v>u__jee</v>
+        <v>mimiciel</v>
       </c>
       <c r="C78" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D78" s="0">
-        <v>169881</v>
+        <v>76572</v>
       </c>
       <c r="E78" s="0" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="F78" s="0">
-        <v>0.0225275</v>
+        <v>9.08103</v>
       </c>
       <c r="G78" s="0">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" customFormat="false">
+        <v>695353</v>
+      </c>
+      <c r="H78" s="0" t="str">
+        <v>7.2259%</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" customFormat="false">
       <c r="A79" s="0">
         <v>78</v>
       </c>
       <c r="B79" s="0" t="str">
-        <v>vivamoon</v>
+        <v>mimiwor</v>
       </c>
       <c r="C79" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D79" s="0">
-        <v>450697</v>
+        <v>238650</v>
       </c>
       <c r="E79" s="0" t="str">
-        <v>C</v>
+        <v>A-</v>
       </c>
       <c r="F79" s="0">
-        <v>0.0514603</v>
+        <v>1.96479</v>
       </c>
       <c r="G79" s="0">
-        <v>23193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" customFormat="false">
+        <v>468897</v>
+      </c>
+      <c r="H79" s="0" t="str">
+        <v>22.1108%</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" customFormat="false">
       <c r="A80" s="0">
         <v>79</v>
       </c>
       <c r="B80" s="0" t="str">
-        <v>vivi_saena</v>
+        <v>minsshop_jm</v>
       </c>
       <c r="C80" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D80" s="0">
-        <v>30645</v>
+        <v>141875</v>
       </c>
       <c r="E80" s="0" t="str">
         <v>A-</v>
       </c>
       <c r="F80" s="0">
-        <v>1.71767</v>
+        <v>1.08241</v>
       </c>
       <c r="G80" s="0">
-        <v>52638</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" customFormat="false">
+        <v>153567</v>
+      </c>
+      <c r="H80" s="0" t="str">
+        <v>18.1232%</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" customFormat="false">
       <c r="A81" s="0">
         <v>80</v>
       </c>
       <c r="B81" s="0" t="str">
-        <v>vvery_woony</v>
+        <v>mirip_jihyo</v>
       </c>
       <c r="C81" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D81" s="0">
-        <v>71656</v>
+        <v>86505</v>
       </c>
       <c r="E81" s="0" t="str">
-        <v>C+</v>
+        <v>C</v>
       </c>
       <c r="F81" s="0">
-        <v>0.0931255</v>
+        <v>0.0255361</v>
       </c>
       <c r="G81" s="0">
-        <v>6673</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" customFormat="false">
+        <v>2209</v>
+      </c>
+      <c r="H81" s="0" t="str">
+        <v>19.0958%</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" customFormat="false">
       <c r="A82" s="0">
         <v>81</v>
       </c>
       <c r="B82" s="0" t="str">
-        <v>wanna_bp</v>
+        <v>miumiusue</v>
       </c>
       <c r="C82" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D82" s="0">
-        <v>222044</v>
+        <v>152720</v>
       </c>
       <c r="E82" s="0" t="str">
-        <v>A</v>
+        <v>C-</v>
       </c>
       <c r="F82" s="0">
-        <v>2.20138</v>
+        <v>0.00638423</v>
       </c>
       <c r="G82" s="0">
-        <v>488804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" customFormat="false">
+        <v>975</v>
+      </c>
+      <c r="H82" s="0" t="str">
+        <v>18.8%</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" customFormat="false">
       <c r="A83" s="0">
         <v>82</v>
       </c>
       <c r="B83" s="0" t="str">
-        <v>withnami</v>
+        <v>monojade</v>
       </c>
       <c r="C83" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D83" s="0">
-        <v>124350</v>
+        <v>65621</v>
       </c>
       <c r="E83" s="0" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="F83" s="0">
-        <v>0.0290149</v>
+        <v>0.442816</v>
       </c>
       <c r="G83" s="0">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" customFormat="false">
+        <v>29058</v>
+      </c>
+      <c r="H83" s="0" t="str">
+        <v>30.4414%</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" customFormat="false">
       <c r="A84" s="0">
         <v>83</v>
       </c>
       <c r="B84" s="0" t="str">
-        <v>xxoziin</v>
+        <v>mynewbae_official</v>
       </c>
       <c r="C84" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D84" s="0">
-        <v>121170</v>
+        <v>595</v>
       </c>
       <c r="E84" s="0" t="str">
-        <v>B</v>
+        <v>C-</v>
       </c>
       <c r="F84" s="0">
-        <v>0.367987</v>
+        <v>0.0</v>
       </c>
       <c r="G84" s="0">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0" t="str">
+        <v>41.1765%</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" customFormat="false">
       <c r="A85" s="0">
         <v>84</v>
       </c>
       <c r="B85" s="0" t="str">
-        <v>y_aile</v>
+        <v>ohttomom</v>
       </c>
       <c r="C85" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D85" s="0">
-        <v>102851</v>
+        <v>391350</v>
       </c>
       <c r="E85" s="0" t="str">
-        <v>A-</v>
+        <v>B-</v>
       </c>
       <c r="F85" s="0">
-        <v>1.35744</v>
+        <v>0.169311</v>
       </c>
       <c r="G85" s="0">
-        <v>139614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" customFormat="false">
+        <v>66260</v>
+      </c>
+      <c r="H85" s="0" t="str">
+        <v>5.3398%</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" customFormat="false">
       <c r="A86" s="0">
         <v>85</v>
       </c>
       <c r="B86" s="0" t="str">
-        <v>yejinkkk</v>
+        <v>pinksecret85</v>
       </c>
       <c r="C86" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D86" s="0">
-        <v>109318</v>
+        <v>123947</v>
       </c>
       <c r="E86" s="0" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="F86" s="0">
-        <v>8.62039</v>
+        <v>0.937618</v>
       </c>
       <c r="G86" s="0">
-        <v>942364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" customFormat="false">
+        <v>116215</v>
+      </c>
+      <c r="H86" s="0" t="str">
+        <v>26.1934%</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" customFormat="false">
       <c r="A87" s="0">
         <v>86</v>
       </c>
       <c r="B87" s="0" t="str">
-        <v>yeonpilates</v>
+        <v>pu___reum</v>
       </c>
       <c r="C87" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D87" s="0">
-        <v>199989</v>
+        <v>165197</v>
       </c>
       <c r="E87" s="0" t="str">
-        <v>A-</v>
+        <v>A</v>
       </c>
       <c r="F87" s="0">
-        <v>1.34341</v>
+        <v>2.16255</v>
       </c>
       <c r="G87" s="0">
-        <v>268668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" customFormat="false">
+        <v>357247</v>
+      </c>
+      <c r="H87" s="0" t="str">
+        <v>8.7174%</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" customFormat="false">
       <c r="A88" s="0">
         <v>87</v>
       </c>
       <c r="B88" s="0" t="str">
-        <v>yjkang34</v>
+        <v>re_elly_</v>
       </c>
       <c r="C88" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D88" s="0">
-        <v>46953</v>
+        <v>50930</v>
       </c>
       <c r="E88" s="0" t="str">
-        <v>C-</v>
+        <v>B+</v>
       </c>
       <c r="F88" s="0">
-        <v>0.0</v>
+        <v>0.623307</v>
       </c>
       <c r="G88" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" customFormat="false">
+        <v>31745</v>
+      </c>
+      <c r="H88" s="0" t="str">
+        <v>30.4173%</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" customFormat="false">
       <c r="A89" s="0">
         <v>88</v>
       </c>
       <c r="B89" s="0" t="str">
-        <v>yoomth</v>
+        <v>reticella</v>
       </c>
       <c r="C89" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D89" s="0">
-        <v>276319</v>
+        <v>79187</v>
       </c>
       <c r="E89" s="0" t="str">
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="F89" s="0">
-        <v>0.183375</v>
+        <v>0.0873628</v>
       </c>
       <c r="G89" s="0">
-        <v>50670</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" customFormat="false">
+        <v>6918</v>
+      </c>
+      <c r="H89" s="0" t="str">
+        <v>16.6302%</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" customFormat="false">
       <c r="A90" s="0">
         <v>89</v>
       </c>
       <c r="B90" s="0" t="str">
-        <v>yoongchic</v>
+        <v>seolhwa939</v>
       </c>
       <c r="C90" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D90" s="0">
-        <v>68771</v>
+        <v>211287</v>
       </c>
       <c r="E90" s="0" t="str">
-        <v>C</v>
+        <v>B-</v>
       </c>
       <c r="F90" s="0">
-        <v>0.051228</v>
+        <v>0.148102</v>
       </c>
       <c r="G90" s="0">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" customFormat="false">
+        <v>31292</v>
+      </c>
+      <c r="H90" s="0" t="str">
+        <v>14.9106%</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" customFormat="false">
       <c r="A91" s="0">
         <v>90</v>
       </c>
       <c r="B91" s="0" t="str">
-        <v>yoonmida</v>
+        <v>shortbutstunning</v>
       </c>
       <c r="C91" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D91" s="0">
-        <v>317328</v>
+        <v>196806</v>
       </c>
       <c r="E91" s="0" t="str">
-        <v>C-</v>
+        <v>A-</v>
       </c>
       <c r="F91" s="0">
-        <v>0.0190213</v>
+        <v>1.44437</v>
       </c>
       <c r="G91" s="0">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" customFormat="false">
+        <v>284261</v>
+      </c>
+      <c r="H91" s="0" t="str">
+        <v>11.6257%</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" customFormat="false">
       <c r="A92" s="0">
         <v>91</v>
       </c>
       <c r="B92" s="0" t="str">
-        <v>you_mer</v>
+        <v>shuni_kaeun</v>
       </c>
       <c r="C92" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D92" s="0">
-        <v>53069</v>
+        <v>110148</v>
       </c>
       <c r="E92" s="0" t="str">
-        <v>C+</v>
+        <v>A-</v>
       </c>
       <c r="F92" s="0">
-        <v>0.0851721</v>
+        <v>1.63104</v>
       </c>
       <c r="G92" s="0">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" customFormat="false">
+        <v>179656</v>
+      </c>
+      <c r="H92" s="0" t="str">
+        <v>34.7159%</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" customFormat="false">
       <c r="A93" s="0">
         <v>92</v>
       </c>
       <c r="B93" s="0" t="str">
-        <v>yuung0204</v>
+        <v>siyeon0220</v>
       </c>
       <c r="C93" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D93" s="0">
-        <v>47869</v>
+        <v>80950</v>
       </c>
       <c r="E93" s="0" t="str">
-        <v>A-</v>
+        <v>C-</v>
       </c>
       <c r="F93" s="0">
-        <v>1.15601</v>
+        <v>0.0</v>
       </c>
       <c r="G93" s="0">
-        <v>55337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" customFormat="false">
+        <v>0</v>
+      </c>
+      <c r="H93" s="0" t="str">
+        <v>27.2727%</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" customFormat="false">
       <c r="A94" s="0">
         <v>93</v>
       </c>
       <c r="B94" s="0" t="str">
-        <v>yxxnii</v>
+        <v>sunmiub</v>
       </c>
       <c r="C94" s="0" t="str">
         <v>16%</v>
       </c>
       <c r="D94" s="0">
-        <v>63340</v>
+        <v>225633</v>
       </c>
       <c r="E94" s="0" t="str">
+        <v>C-</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0.0174088</v>
+      </c>
+      <c r="G94" s="0">
+        <v>3928</v>
+      </c>
+      <c r="H94" s="0" t="str">
+        <v>0.3623%</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" customFormat="false">
+      <c r="A95" s="0">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="str">
+        <v>suzymin</v>
+      </c>
+      <c r="C95" s="0" t="str">
+        <v>16%</v>
+      </c>
+      <c r="D95" s="0">
+        <v>53980</v>
+      </c>
+      <c r="E95" s="0" t="str">
+        <v>C-</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0.00270471</v>
+      </c>
+      <c r="G95" s="0">
+        <v>146</v>
+      </c>
+      <c r="H95" s="0" t="str">
+        <v>31.4751%</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" customFormat="false">
+      <c r="A96" s="0">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="str">
+        <v>chungjizzle</v>
+      </c>
+      <c r="C96" s="0" t="str">
+        <v>16%</v>
+      </c>
+      <c r="D96" s="0">
+        <v>300357</v>
+      </c>
+      <c r="E96" s="0" t="str">
         <v>C</v>
       </c>
-      <c r="F94" s="0">
-        <v>0.0346858</v>
-      </c>
-      <c r="G94" s="0">
-        <v>2197</v>
+      <c r="F96" s="0">
+        <v>0.0311796</v>
+      </c>
+      <c r="G96" s="0">
+        <v>9365</v>
+      </c>
+      <c r="H96" s="0" t="str">
+        <v>1.3496%</v>
       </c>
     </row>
   </sheetData>
